--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_sym6_145.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_sym6_145.qasm_rb2_archsize3_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1762"/>
+  <dimension ref="A1:N1763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9524552822113037</v>
+        <v>1.432774305343628</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00299525260925293</v>
+        <v>0.003077983856201172</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2226300239562988</v>
+        <v>0.2920558452606201</v>
       </c>
     </row>
     <row r="8">
@@ -12778,7 +12778,7 @@
         </is>
       </c>
       <c r="B1756" t="n">
-        <v>0.0001948329009015603</v>
+        <v>0.0001948278093349468</v>
       </c>
     </row>
     <row r="1757">
@@ -12788,116 +12788,126 @@
         </is>
       </c>
       <c r="B1757" t="n">
-        <v>25551.9650546003</v>
+        <v>25591.1650546003</v>
       </c>
     </row>
     <row r="1758">
       <c r="A1758" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1758" t="n">
-        <v>38</v>
+        <v>0.9977596595025411</v>
       </c>
     </row>
     <row r="1759">
       <c r="A1759" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1759" t="n">
-        <v>1673</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1760">
       <c r="A1760" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1760" t="n">
-        <v>9</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1761">
       <c r="A1761" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1761" t="n">
-        <v>1.254194259643555</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1762">
       <c r="A1762" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1762" t="n">
+        <v>1.84182596206665</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1762" t="inlineStr">
+      <c r="B1763" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1762" t="inlineStr">
+      <c r="C1763" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1762" t="inlineStr">
+      <c r="D1763" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1762" t="inlineStr">
+      <c r="E1763" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1762" t="inlineStr">
+      <c r="F1763" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1762" t="inlineStr">
+      <c r="G1763" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1762" t="inlineStr">
+      <c r="H1763" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1762" t="inlineStr">
+      <c r="I1763" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1762" t="inlineStr">
+      <c r="J1763" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1762" t="inlineStr">
+      <c r="K1763" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1762" t="inlineStr">
+      <c r="L1763" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1762" t="inlineStr">
+      <c r="M1763" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1762" t="inlineStr">
+      <c r="N1763" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_sym6_145.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_sym6_145.qasm_rb2_archsize3_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.432774305343628</v>
+        <v>0.002949953079223633</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003077983856201172</v>
+        <v>0.0008502006530761719</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2920558452606201</v>
+        <v>0.2065458297729492</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(1, 1), (1, 0), (0, 1), (0, 0), (2, 0), (1, 2), (2, 1)]</t>
+          <t>[[1, 1], [1, 0], [0, 1], [0, 0], [2, 0], [1, 2], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>[(0, 2), (1, 1), (0, 1), (2, 2), (0, 0), (1, 2), (2, 1)]</t>
+          <t>[[0, 2], [1, 1], [0, 1], [2, 2], [0, 0], [1, 2], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>[(1, 0), (1, 2), (2, 1), (1, 1), (0, 1), (0, 0), (0, 2)]</t>
+          <t>[[1, 0], [1, 2], [2, 1], [1, 1], [0, 1], [0, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -6668,7 +6668,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>[(1, 0), (0, 1), (2, 1), (1, 2), (1, 1), (0, 0), (0, 2)]</t>
+          <t>[[1, 0], [0, 1], [2, 1], [1, 2], [1, 1], [0, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 0), (1, 2), (1, 1), (2, 1), (0, 1), (1, 0)]</t>
+          <t>[[0, 2], [0, 0], [1, 2], [1, 1], [2, 1], [0, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -9259,7 +9259,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>[(0, 1), (1, 1), (0, 0), (0, 2), (2, 1), (1, 2), (1, 0)]</t>
+          <t>[[0, 1], [1, 1], [0, 0], [0, 2], [2, 1], [1, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>[(0, 0), (2, 0), (1, 0), (1, 1), (2, 1), (0, 1), (1, 2)]</t>
+          <t>[[0, 0], [2, 0], [1, 0], [1, 1], [2, 1], [0, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -11955,7 +11955,7 @@
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 0), (2, 1), (1, 0), (1, 1), (1, 2), (0, 1)]</t>
+          <t>[[0, 2], [0, 0], [2, 1], [1, 0], [1, 1], [1, 2], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -12571,7 +12571,7 @@
     <row r="1727">
       <c r="A1727" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 1), (0, 0), (1, 2), (1, 0), (2, 1), (1, 1)]</t>
+          <t>[[0, 2], [0, 1], [0, 0], [1, 2], [1, 0], [2, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -12838,7 +12838,7 @@
         </is>
       </c>
       <c r="B1762" t="n">
-        <v>1.84182596206665</v>
+        <v>0.2783098220825195</v>
       </c>
     </row>
     <row r="1763">
